--- a/bin/main/english/verb/ingles.xlsx
+++ b/bin/main/english/verb/ingles.xlsx
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">tie a bend in the rope to make it easier to attach the anchor line</t>
   </si>
   <si>
-    <t xml:space="preserve">bend8</t>
+    <t xml:space="preserve">bend88</t>
   </si>
   <si>
     <t xml:space="preserve">la banda</t>
@@ -3486,8 +3486,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A153" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D192" activeCellId="0" sqref="D192"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D120" activeCellId="0" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
